--- a/satd_issue_dataset_Scala_tsuji.xlsx
+++ b/satd_issue_dataset_Scala_tsuji.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9860A8B4-0BD9-CA40-AA4C-150D6613F125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21A18A1-5592-9B4A-8F22-52196228C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800"/>
+    <workbookView xWindow="9580" yWindow="-21100" windowWidth="28800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Scala" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="276">
   <si>
     <t>Issue</t>
   </si>
@@ -683,13 +683,295 @@
   <si>
     <t>[Content]
 [Class]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]あらゆる場所で ConfigFactory.load を避ける
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WorkflowId の TypedType を作成する
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Engine から Metadata DataAccess を分離する
+[Class]機能の分離</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リークスレッドとメモリをテストします
+[Class]テストの実行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tests</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]default_runtime_attributes は MaterializeWorkflowDescriptorActor のものでなければなりません
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最大ポーリング間隔は無視されました
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「PostMVP」テストのタグを外して、無視された数などのメトリックを収集できるようにします
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Scalaz -&gt; 猫
+[Class]？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]存在チェックからコールバックを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エンジン プロジェクトの Jes テストのクリーンアップ
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WorkflowExecutionActor および WorkflowManagerActor: JobStore ack の処理
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古いデータベースコード/テーブルのクリーンアップ
+[Class]DB，コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SAEA と ABJEA をマージ/クリーンアップし、promise-of-results、futures-of-handles などを削除します
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]さまざまな Cromwell テーブルの列名を標準化する
+[Class]DBの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WorkflowStore の失敗: JobStore エントリの前に WorkflowStore エントリが削除されていることを確認してください
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]OldeWorldeSqlDatabase を削除する
+[Class]不要なDBの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Centaur、"run a wdl" テスト、単体テストなど
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バックエンドの決定を最初にワークフロー オプションに変更し、次にデフォルトに変更
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ファイル ハッシュ ショートサーキット
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コール キャッシング関連の REST API を実装する
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]再起動機能のテスト
+[Class]テストの実行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]少額の PBE 技術負債を取り除く
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]移行が完了したら、SlickDatabaseAccess で PBE todo を削除します
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アクターの命名
+[Class]名前の変更，コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CC 状態を EJEA サブアクターにリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Un-abstract EngineWorkflowFinalizationActor
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WorkflowExecutionActor の AbortedResponse ハンドラは不必要なようです
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FileHasherWorkerActor には愛が必要です
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シバンを標準化し、（おそらく）構成可能にする 
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Requirement</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EJEA の範囲を縮小する
+[Class]仕様の変更</t>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シヨウノヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]修正中止配線
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]部分的な入力を避けるためのアトミック ファイル コピー
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]キャッシュの読み取り+ 再起動はおそらく理想的ではありません
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リキベースの更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Scope / GraphNode の違い、および宣言がノードになることの結果をより深く調査する
+[Class]関数の調査，機能の改善</t>
+    <rPh sb="71" eb="73">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいルックアップ/変数解決スキーマを利用する
+[Class]関数の利用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データベース設定を調整してパフォーマンスを向上させる
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]NIO 再試行プロキシ パターンを削除し、より適切な (非同期?) ラッパーに置き換えます
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不正な入力が処理されず、応答がありません
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エンジンによってプルされるローカル (すべての SFS ?) 上の不完全なファイル
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストを WorkflowQueryPagination に追加します 
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストを CromwellServerActor に追加します
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]metadata-summary-refresh-interval が間違った場所にある
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MetadataSlickDatabase の (間もなく存在する) ハードコードを削除します
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CLI の改善: 使用方法のメッセージと動作
+[Class]CLIの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Silence 「適切な DSN が見つかりませんでした」
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トラビス ケンタウロスのエラーを報告して再試行する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Papi V1 CRON を再びグリーンにする
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Papi V2 CRON を再びグリーンにする
+[Class]テストの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="12"/>
@@ -1647,16 +1929,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
     <col min="3" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" customWidth="1"/>
     <col min="6" max="6" width="58.28515625" customWidth="1"/>
@@ -1686,8 +1968,11 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -1697,8 +1982,11 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -1708,8 +1996,11 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>221</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -1719,19 +2010,25 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="42">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="63">
       <c r="A6">
         <v>1076</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>221</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -1741,19 +2038,25 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>221</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63">
       <c r="A8">
         <v>1149</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -1763,8 +2066,11 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>230</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -1774,8 +2080,11 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>221</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -1785,19 +2094,25 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="42">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="63">
       <c r="A12">
         <v>1191</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -1807,19 +2122,25 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>221</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="42">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="63">
       <c r="A14">
         <v>1218</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>221</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -1829,19 +2150,25 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>221</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="42">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="63">
       <c r="A16">
         <v>1247</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>221</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -1851,8 +2178,11 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>221</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -1862,19 +2192,25 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="42">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="63">
       <c r="A19">
         <v>1312</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>221</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -1884,8 +2220,11 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -1895,8 +2234,11 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -1906,8 +2248,11 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -1917,19 +2262,25 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="42">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="63">
       <c r="A24">
         <v>1336</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -1939,8 +2290,11 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -1950,8 +2304,11 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -1961,19 +2318,25 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="42">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="63">
       <c r="A28">
         <v>1376</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
+      <c r="C28" t="s">
+        <v>221</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -1983,8 +2346,11 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
+      <c r="C29" t="s">
+        <v>221</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -1994,8 +2360,11 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30" t="s">
+        <v>221</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -2005,8 +2374,11 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -2016,8 +2388,11 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
+      <c r="C32" t="s">
+        <v>221</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -2027,8 +2402,11 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -2038,8 +2416,11 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
+      <c r="C34" t="s">
+        <v>221</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -2049,19 +2430,25 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="C35" t="s">
+        <v>258</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="42">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="63">
       <c r="A36">
         <v>1577</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="C36" t="s">
+        <v>221</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -2071,8 +2458,11 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
+      <c r="C37" t="s">
+        <v>221</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -2082,19 +2472,25 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
+      <c r="C38" t="s">
+        <v>262</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="42">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="63">
       <c r="A39">
         <v>1611</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
+      <c r="C39" t="s">
+        <v>221</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -2104,19 +2500,25 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
+      <c r="C40" t="s">
+        <v>221</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="42">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="63">
       <c r="A41">
         <v>1746</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
+      <c r="C41" t="s">
+        <v>221</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -2126,8 +2528,11 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
+      <c r="C42" t="s">
+        <v>225</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -2137,8 +2542,11 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
+      <c r="C43" t="s">
+        <v>225</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -2148,19 +2556,25 @@
       <c r="B44" t="s">
         <v>44</v>
       </c>
+      <c r="C44" t="s">
+        <v>221</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="42">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="63">
       <c r="A45">
         <v>1851</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -2170,8 +2584,11 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
+      <c r="C46" t="s">
+        <v>271</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -2181,8 +2598,11 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
+      <c r="C47" t="s">
+        <v>221</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -2192,8 +2612,11 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
+      <c r="C48" t="s">
+        <v>225</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -2203,8 +2626,11 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
+      <c r="C49" t="s">
+        <v>225</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -2214,8 +2640,11 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
+      <c r="C50" t="s">
+        <v>225</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>219</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">

--- a/satd_issue_dataset_Scala_tsuji.xlsx
+++ b/satd_issue_dataset_Scala_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21A18A1-5592-9B4A-8F22-52196228C352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD75BD3-9B0E-6B4D-A54D-FFC084B14655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="-21100" windowWidth="28800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="327">
   <si>
     <t>Issue</t>
   </si>
@@ -965,6 +965,263 @@
   <si>
     <t>[Content]Papi V2 CRON を再びグリーンにする
 [Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Cromwell マシンの CPU がペグされ、再起動しないと回復できない
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cwl_format_valid_with_workflow_url 次に断続的に失敗する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定なリクエスタはローカリゼーション テストを支払う
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]解凍されたインポート ディレクトリのクリーンアップ ルーチン
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パブリック API に明示的な戻り値の型を追加する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Operations に「flatten」メソッドを追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エラー処理とエラー メッセージのリファクタリングと改善
+[Class]エラー処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]継続的インテグレーションはベンチマークを実行し、結果を保存する必要があります
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クラスタリング\リモート実行に関する単体テスト
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GeoTrellis シングルトン サーバー オブジェクトをコアにプルする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]操作で「名前」属性の名前を変更します
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]列と行の反復を一貫させる
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Ints および Doubles に対して NoData をチェックするための暗黙的な値クラスを作成する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]すべての TODO に対処する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]0.9 リリースのベンチマーク
+[Class]ベンチマークテスト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]geotrellis-spark へのログイン
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GeoTiffReader API
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]取り込み中の「geotrellis.raster.GeoAttrsError: 無効な列: 0」
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]geotrellis.rasterImplicitsオブジェクト
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]API でコミュニティ Functor の使用を採用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サブプロジェクトvectortileから依存関係を削除spark
+[Class]依存関係の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]適切なTilerMethods関数がContextRDD
+[Class]関数の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]asciiDrawルーチンを拡張メソッドとしてリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]競合する spire(-macros) のバージョン
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HdfsUtils は println を呼び出します
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cropgeotiff での振る舞いは推論が困難です
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GeoTiff.getClosestOverview は公開する必要があります
+[Class]機能の公開</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ヒストグラム法は暗黙の分散に敏感でなければならない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TileLayerMetadata のマイナー デッド コード
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]IO がエラーを飲み込むのを防ぐ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カスタム LazyLogging の廃止
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]WKT.fromEpsgCode安全でない呼び出しを行うOption.get
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コレクション API を Spark パッケージから切り離す
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カスタム s3Client でリージョンが見つかりません
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]レイヤー パッケージを Spark および Collections クラスごとに分割する
+[Class]パッケージの分割</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ベクターパッケージのコンパイラ警告を取り除く
+[Class]警告への対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]分割ラスタ Reproject.Options
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]getByteReader 関数を RangeReader SPI に置き換える
+[Class]関数の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]?コードベースでの使用を廃止する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GeoWave パッケージが公開されていません
+[Class]パッケージの公開</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GeoWave および GeoMesa パッケージの命名
+[Class]パッケージの名前変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Cats エコシステムの依存関係をアップグレードする
+[Class]依存関係のアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>今までDesignにしてたかも</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イママデ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]現在のマスター ブランチでヘッダーの生成が壊れている
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Jackson の依存関係を修正する
+[Class]依存関係の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HttpRangeReader は Spark パッケージの外にある必要があります
+[Class]ファイルの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Scala 2.11 クロス コンパイルを削除
+[Class]不要なファイルの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Traversable の変更により、SpatialIndex が Scala 2.13 でコンパイルされない
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EMR 6.2+ で Spark 3 および Hadoop 3 を使用して GeoTrellis をテストする
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Compiler.indexDependencyClasspath を別のユーティリティに移動
+[Class]ファイルの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]よりきめ細かい leveldb ロック
+[Class]機能の改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1932,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2647,15 +2904,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="42">
+    <row r="51" spans="1:6" ht="63">
       <c r="A51">
         <v>4093</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
+      <c r="C51" t="s">
+        <v>221</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -2665,8 +2925,11 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
+      <c r="C52" t="s">
+        <v>225</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -2676,8 +2939,11 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
+      <c r="C53" t="s">
+        <v>225</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -2687,8 +2953,11 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
+      <c r="C54" t="s">
+        <v>221</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -2698,8 +2967,11 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
+      <c r="C55" t="s">
+        <v>221</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -2709,8 +2981,11 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -2720,19 +2995,25 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
+      <c r="C57" t="s">
+        <v>221</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="42">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="63">
       <c r="A58">
         <v>376</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
+      <c r="C58" t="s">
+        <v>225</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -2742,19 +3023,25 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
+      <c r="C59" t="s">
+        <v>225</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="42">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="63">
       <c r="A60">
         <v>502</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
+      <c r="C60" t="s">
+        <v>221</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -2764,8 +3051,11 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
+      <c r="C61" t="s">
+        <v>221</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>219</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -2775,19 +3065,25 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
+      <c r="C62" t="s">
+        <v>221</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="42">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="63">
       <c r="A63">
         <v>624</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
+      <c r="C63" t="s">
+        <v>221</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -2797,8 +3093,11 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
+      <c r="C64" t="s">
+        <v>221</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -2808,8 +3107,11 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
+      <c r="C65" t="s">
+        <v>225</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -2819,8 +3121,11 @@
       <c r="B66" t="s">
         <v>66</v>
       </c>
+      <c r="C66" t="s">
+        <v>221</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -2830,8 +3135,11 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
+      <c r="C67" t="s">
+        <v>221</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -2841,8 +3149,11 @@
       <c r="B68" t="s">
         <v>68</v>
       </c>
+      <c r="C68" t="s">
+        <v>221</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>219</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -2852,8 +3163,11 @@
       <c r="B69" t="s">
         <v>69</v>
       </c>
+      <c r="C69" t="s">
+        <v>221</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -2863,8 +3177,11 @@
       <c r="B70" t="s">
         <v>70</v>
       </c>
+      <c r="C70" t="s">
+        <v>221</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -2874,8 +3191,11 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" t="s">
+        <v>258</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -2885,8 +3205,11 @@
       <c r="B72" t="s">
         <v>72</v>
       </c>
+      <c r="C72" t="s">
+        <v>221</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -2896,8 +3219,11 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
+      <c r="C73" t="s">
+        <v>221</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -2907,8 +3233,11 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -2918,8 +3247,11 @@
       <c r="B75" t="s">
         <v>75</v>
       </c>
+      <c r="C75" t="s">
+        <v>221</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -2929,8 +3261,11 @@
       <c r="B76" t="s">
         <v>76</v>
       </c>
+      <c r="C76" t="s">
+        <v>221</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -2940,8 +3275,14 @@
       <c r="B77" t="s">
         <v>77</v>
       </c>
+      <c r="C77" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" t="s">
+        <v>221</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -2951,8 +3292,11 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
+      <c r="C78" t="s">
+        <v>221</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -2962,8 +3306,11 @@
       <c r="B79" t="s">
         <v>79</v>
       </c>
+      <c r="C79" t="s">
+        <v>221</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -2973,8 +3320,11 @@
       <c r="B80" t="s">
         <v>80</v>
       </c>
+      <c r="C80" t="s">
+        <v>221</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -2984,8 +3334,11 @@
       <c r="B81" t="s">
         <v>81</v>
       </c>
+      <c r="C81" t="s">
+        <v>221</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -2995,8 +3348,11 @@
       <c r="B82" t="s">
         <v>82</v>
       </c>
+      <c r="C82" t="s">
+        <v>221</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -3006,8 +3362,11 @@
       <c r="B83" t="s">
         <v>83</v>
       </c>
+      <c r="C83" t="s">
+        <v>221</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -3017,19 +3376,25 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
+      <c r="C84" t="s">
+        <v>221</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="42">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="63">
       <c r="A85">
         <v>2934</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
       </c>
+      <c r="C85" t="s">
+        <v>221</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -3039,8 +3404,11 @@
       <c r="B86" t="s">
         <v>86</v>
       </c>
+      <c r="C86" t="s">
+        <v>221</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -3050,8 +3418,11 @@
       <c r="B87" t="s">
         <v>87</v>
       </c>
+      <c r="C87" t="s">
+        <v>221</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>219</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -3061,8 +3432,11 @@
       <c r="B88" t="s">
         <v>88</v>
       </c>
+      <c r="C88" t="s">
+        <v>221</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -3072,8 +3446,11 @@
       <c r="B89" t="s">
         <v>89</v>
       </c>
+      <c r="C89" t="s">
+        <v>221</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>219</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -3083,8 +3460,14 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
+      <c r="C90" t="s">
+        <v>230</v>
+      </c>
+      <c r="D90" t="s">
+        <v>221</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -3094,8 +3477,11 @@
       <c r="B91" t="s">
         <v>91</v>
       </c>
+      <c r="C91" t="s">
+        <v>221</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -3105,8 +3491,14 @@
       <c r="B92" t="s">
         <v>92</v>
       </c>
+      <c r="C92" t="s">
+        <v>258</v>
+      </c>
+      <c r="E92" t="s">
+        <v>318</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -3116,8 +3508,11 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
+      <c r="C93" t="s">
+        <v>221</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -3127,19 +3522,25 @@
       <c r="B94" t="s">
         <v>94</v>
       </c>
+      <c r="C94" t="s">
+        <v>258</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="42">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="63">
       <c r="A95">
         <v>3254</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
       </c>
+      <c r="C95" t="s">
+        <v>221</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>219</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -3149,41 +3550,53 @@
       <c r="B96" t="s">
         <v>96</v>
       </c>
+      <c r="C96" t="s">
+        <v>221</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="42">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="63">
       <c r="A97">
         <v>3349</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
       </c>
+      <c r="C97" t="s">
+        <v>258</v>
+      </c>
       <c r="F97" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="42">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="63">
       <c r="A98">
         <v>3380</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
       </c>
+      <c r="C98" t="s">
+        <v>225</v>
+      </c>
       <c r="F98" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="42">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="63">
       <c r="A99">
         <v>48</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
+      <c r="C99" t="s">
+        <v>221</v>
+      </c>
       <c r="F99" s="2" t="s">
-        <v>219</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -3193,8 +3606,11 @@
       <c r="B100" t="s">
         <v>100</v>
       </c>
+      <c r="C100" t="s">
+        <v>221</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>219</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">

--- a/satd_issue_dataset_Scala_tsuji.xlsx
+++ b/satd_issue_dataset_Scala_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD75BD3-9B0E-6B4D-A54D-FFC084B14655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AF45FF-CAE3-2D46-8CCB-E2C9CADE5D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="-21100" windowWidth="28800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="382">
   <si>
     <t>Issue</t>
   </si>
@@ -1222,6 +1222,288 @@
   <si>
     <t>[Content]よりきめ細かい leveldb ロック
 [Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]signatureHelp には _CURSOR_ を使用します
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]インデックスのカスタム データ構造
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]-Dvscode.workspace= を削除する必要があります
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マスターの CI が不安定
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]monix を使用するように JSON-RPC 読み取り/書き込みループをリファクタリングする
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]implicit val format = Json.format[T]ボイラープレートを取り除く
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]文字/行をデータ型にパックする
+[Class]データの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ロギング戦略を理解する
+[Class]ツールの移行</t>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]参照テストのクリーンアップ 
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SbtServerTest を有効にする
+[Class]テストの有効化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロジェクトの名前変更
+[Class]プロジェクトの名前変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Reqirement</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]lsp4s および jsonrpc テスト スイートをメタサーバー プロジェクトから移動
+[Class]テストの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI で長寿命の Bloop サーバーを使用する
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Appveyor での不安定なテスト
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Bloop ランチャーを使用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Appveyor CI のテストが一貫して失敗する
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スロー/テスト CI ジョブを小さなチャンクに分割する
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI で Maven テスト スイートを再度有効にする
+[Class]テストの有効化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マスターの CI が不安定
+[Class]CIツールの不具合</t>
+    <rPh sb="36" eb="39">
+      <t xml:space="preserve">フグアイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最新の nuprocess と directory-watcher にアップグレードする
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PantsLspSuite.basic は CI では不安定です
+[Class]CIテストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]未保存の編集をコード アクションで処理するための単体テストを作成する
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestingServer でコードの重複を排除する
+[Class]重複したコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テストのコード？結局削除されてないので不明</t>
+    <rPh sb="8" eb="12">
+      <t xml:space="preserve">ケッキョクサクジョサレテナイ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">フメイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]https://github.com/github/gitignore に gitignore を追加します
+[Class]gitignoreの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GitPod デモが機能しない
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]最新の munit に移行
+[Class]ツールのアップグレード，テスト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デバッグ関連のスイートは不安定です
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Scala 2.12.12 を使用するように Ammonite と Scalafix を更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードベースを 2.13 に移行
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アンモナイトを 2.13.4 に更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ディレクトリウォッチャーを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アンモナイトを 2.13.5 に更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]debugSession/start リクエストの予期しない -J 接頭辞
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]シンボル検索 - Scala3 ソースに正しい方言を使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]突然変異試験
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Databen.ch ベンチマーク
+[Class]ベンチマークテストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不安定な統合テストを修正 
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]レビューExpandNestedQueriesSpec
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]100% のテスト カバレッジ
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルド時間を短縮
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「Scala コミュニティ ビルド」に Quill を追加 
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エンコーディングをソースから切り離す
+[Class]エンコードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ソースコードフォーマッター
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フォーマッタがファイルを変更した場合、ci ビルドに失敗します
+[Class]CIビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クエリ プローブをオプトインにする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]レビューBindedStatementBuilderアプローチ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ルートフォルダーを整理する
+[Class]ファイルの整理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MiMa プラグインの紹介
+[Class]プラグインの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]doc: sbt-tut
+[Class]ドキュメントの検証</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Documentation？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース プロセス: gh ページの自動更新
+[Class]リリース</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2189,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3620,8 +3902,11 @@
       <c r="B101" t="s">
         <v>101</v>
       </c>
+      <c r="C101" t="s">
+        <v>221</v>
+      </c>
       <c r="F101" s="2" t="s">
-        <v>219</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -3631,8 +3916,11 @@
       <c r="B102" t="s">
         <v>102</v>
       </c>
+      <c r="C102" t="s">
+        <v>221</v>
+      </c>
       <c r="F102" s="2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -3642,8 +3930,11 @@
       <c r="B103" t="s">
         <v>103</v>
       </c>
+      <c r="C103" t="s">
+        <v>221</v>
+      </c>
       <c r="F103" s="2" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -3653,30 +3944,39 @@
       <c r="B104" t="s">
         <v>104</v>
       </c>
+      <c r="C104" t="s">
+        <v>225</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="42">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="63">
       <c r="A105">
         <v>152</v>
       </c>
       <c r="B105" t="s">
         <v>105</v>
       </c>
+      <c r="C105" t="s">
+        <v>221</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="42">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="63">
       <c r="A106">
         <v>153</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
       </c>
+      <c r="C106" t="s">
+        <v>221</v>
+      </c>
       <c r="F106" s="2" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -3686,8 +3986,11 @@
       <c r="B107" t="s">
         <v>107</v>
       </c>
+      <c r="C107" t="s">
+        <v>221</v>
+      </c>
       <c r="F107" s="2" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -3697,8 +4000,11 @@
       <c r="B108" t="s">
         <v>108</v>
       </c>
+      <c r="C108" t="s">
+        <v>258</v>
+      </c>
       <c r="F108" s="2" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -3708,8 +4014,11 @@
       <c r="B109" t="s">
         <v>109</v>
       </c>
+      <c r="C109" t="s">
+        <v>225</v>
+      </c>
       <c r="F109" s="2" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -3719,8 +4028,11 @@
       <c r="B110" t="s">
         <v>110</v>
       </c>
+      <c r="C110" t="s">
+        <v>225</v>
+      </c>
       <c r="F110" s="2" t="s">
-        <v>219</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -3730,19 +4042,28 @@
       <c r="B111" t="s">
         <v>111</v>
       </c>
+      <c r="C111" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" t="s">
+        <v>338</v>
+      </c>
       <c r="F111" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="42">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="63">
       <c r="A112">
         <v>191</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
       </c>
+      <c r="C112" t="s">
+        <v>225</v>
+      </c>
       <c r="F112" s="2" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -3752,8 +4073,11 @@
       <c r="B113" t="s">
         <v>113</v>
       </c>
+      <c r="C113" t="s">
+        <v>225</v>
+      </c>
       <c r="F113" s="2" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -3763,8 +4087,11 @@
       <c r="B114" t="s">
         <v>114</v>
       </c>
+      <c r="C114" t="s">
+        <v>225</v>
+      </c>
       <c r="F114" s="2" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -3774,8 +4101,11 @@
       <c r="B115" t="s">
         <v>115</v>
       </c>
+      <c r="C115" t="s">
+        <v>221</v>
+      </c>
       <c r="F115" s="2" t="s">
-        <v>219</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -3785,8 +4115,11 @@
       <c r="B116" t="s">
         <v>116</v>
       </c>
+      <c r="C116" t="s">
+        <v>225</v>
+      </c>
       <c r="F116" s="2" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -3796,8 +4129,11 @@
       <c r="B117" t="s">
         <v>117</v>
       </c>
+      <c r="C117" t="s">
+        <v>225</v>
+      </c>
       <c r="F117" s="2" t="s">
-        <v>219</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -3807,8 +4143,11 @@
       <c r="B118" t="s">
         <v>118</v>
       </c>
+      <c r="C118" t="s">
+        <v>225</v>
+      </c>
       <c r="F118" s="2" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="42">
@@ -3818,8 +4157,14 @@
       <c r="B119" t="s">
         <v>119</v>
       </c>
+      <c r="C119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D119" t="s">
+        <v>225</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -3829,8 +4174,11 @@
       <c r="B120" t="s">
         <v>120</v>
       </c>
+      <c r="C120" t="s">
+        <v>258</v>
+      </c>
       <c r="F120" s="2" t="s">
-        <v>219</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -3840,19 +4188,25 @@
       <c r="B121" t="s">
         <v>121</v>
       </c>
+      <c r="C121" t="s">
+        <v>225</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="42">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="63">
       <c r="A122">
         <v>1231</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
+      <c r="C122" t="s">
+        <v>225</v>
+      </c>
       <c r="F122" s="2" t="s">
-        <v>219</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -3862,8 +4216,17 @@
       <c r="B123" t="s">
         <v>123</v>
       </c>
+      <c r="C123" t="s">
+        <v>221</v>
+      </c>
+      <c r="D123" t="s">
+        <v>225</v>
+      </c>
+      <c r="E123" t="s">
+        <v>351</v>
+      </c>
       <c r="F123" s="2" t="s">
-        <v>219</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -3873,8 +4236,11 @@
       <c r="B124" t="s">
         <v>124</v>
       </c>
+      <c r="C124" t="s">
+        <v>221</v>
+      </c>
       <c r="F124" s="2" t="s">
-        <v>219</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -3884,8 +4250,11 @@
       <c r="B125" t="s">
         <v>125</v>
       </c>
+      <c r="C125" t="s">
+        <v>221</v>
+      </c>
       <c r="F125" s="2" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -3895,8 +4264,14 @@
       <c r="B126" t="s">
         <v>126</v>
       </c>
+      <c r="C126" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" t="s">
+        <v>225</v>
+      </c>
       <c r="F126" s="2" t="s">
-        <v>219</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -3906,8 +4281,11 @@
       <c r="B127" t="s">
         <v>127</v>
       </c>
+      <c r="C127" t="s">
+        <v>225</v>
+      </c>
       <c r="F127" s="2" t="s">
-        <v>219</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -3917,8 +4295,11 @@
       <c r="B128" t="s">
         <v>128</v>
       </c>
+      <c r="C128" t="s">
+        <v>258</v>
+      </c>
       <c r="F128" s="2" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -3928,8 +4309,11 @@
       <c r="B129" t="s">
         <v>129</v>
       </c>
+      <c r="C129" t="s">
+        <v>221</v>
+      </c>
       <c r="F129" s="2" t="s">
-        <v>219</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -3939,8 +4323,11 @@
       <c r="B130" t="s">
         <v>130</v>
       </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
       <c r="F130" s="2" t="s">
-        <v>219</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -3950,8 +4337,11 @@
       <c r="B131" t="s">
         <v>131</v>
       </c>
+      <c r="C131" t="s">
+        <v>221</v>
+      </c>
       <c r="F131" s="2" t="s">
-        <v>219</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -3961,8 +4351,11 @@
       <c r="B132" t="s">
         <v>132</v>
       </c>
+      <c r="C132" t="s">
+        <v>258</v>
+      </c>
       <c r="F132" s="2" t="s">
-        <v>219</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -3972,8 +4365,11 @@
       <c r="B133" t="s">
         <v>133</v>
       </c>
+      <c r="C133" t="s">
+        <v>221</v>
+      </c>
       <c r="F133" s="2" t="s">
-        <v>219</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -3983,8 +4379,11 @@
       <c r="B134" t="s">
         <v>134</v>
       </c>
+      <c r="C134" t="s">
+        <v>221</v>
+      </c>
       <c r="F134" s="2" t="s">
-        <v>219</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -3994,8 +4393,11 @@
       <c r="B135" t="s">
         <v>135</v>
       </c>
+      <c r="C135" t="s">
+        <v>225</v>
+      </c>
       <c r="F135" s="2" t="s">
-        <v>219</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -4005,8 +4407,11 @@
       <c r="B136" t="s">
         <v>136</v>
       </c>
+      <c r="C136" t="s">
+        <v>225</v>
+      </c>
       <c r="F136" s="2" t="s">
-        <v>219</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -4016,8 +4421,11 @@
       <c r="B137" t="s">
         <v>137</v>
       </c>
+      <c r="C137" t="s">
+        <v>225</v>
+      </c>
       <c r="F137" s="2" t="s">
-        <v>219</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -4027,8 +4435,11 @@
       <c r="B138" t="s">
         <v>138</v>
       </c>
+      <c r="C138" t="s">
+        <v>225</v>
+      </c>
       <c r="F138" s="2" t="s">
-        <v>219</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -4038,8 +4449,11 @@
       <c r="B139" t="s">
         <v>139</v>
       </c>
+      <c r="C139" t="s">
+        <v>225</v>
+      </c>
       <c r="F139" s="2" t="s">
-        <v>219</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -4049,8 +4463,11 @@
       <c r="B140" t="s">
         <v>140</v>
       </c>
+      <c r="C140" t="s">
+        <v>369</v>
+      </c>
       <c r="F140" s="2" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -4060,8 +4477,11 @@
       <c r="B141" t="s">
         <v>141</v>
       </c>
+      <c r="C141" t="s">
+        <v>369</v>
+      </c>
       <c r="F141" s="2" t="s">
-        <v>219</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -4071,8 +4491,11 @@
       <c r="B142" t="s">
         <v>142</v>
       </c>
+      <c r="C142" t="s">
+        <v>221</v>
+      </c>
       <c r="F142" s="2" t="s">
-        <v>219</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -4082,8 +4505,11 @@
       <c r="B143" t="s">
         <v>143</v>
       </c>
+      <c r="C143" t="s">
+        <v>221</v>
+      </c>
       <c r="F143" s="2" t="s">
-        <v>219</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -4093,8 +4519,11 @@
       <c r="B144" t="s">
         <v>144</v>
       </c>
+      <c r="C144" t="s">
+        <v>369</v>
+      </c>
       <c r="F144" s="2" t="s">
-        <v>219</v>
+        <v>373</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -4104,8 +4533,11 @@
       <c r="B145" t="s">
         <v>145</v>
       </c>
+      <c r="C145" t="s">
+        <v>221</v>
+      </c>
       <c r="F145" s="2" t="s">
-        <v>219</v>
+        <v>374</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -4115,8 +4547,11 @@
       <c r="B146" t="s">
         <v>146</v>
       </c>
+      <c r="C146" t="s">
+        <v>221</v>
+      </c>
       <c r="F146" s="2" t="s">
-        <v>219</v>
+        <v>375</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -4126,8 +4561,11 @@
       <c r="B147" t="s">
         <v>147</v>
       </c>
+      <c r="C147" t="s">
+        <v>221</v>
+      </c>
       <c r="F147" s="2" t="s">
-        <v>219</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -4137,8 +4575,11 @@
       <c r="B148" t="s">
         <v>148</v>
       </c>
+      <c r="C148" t="s">
+        <v>258</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>219</v>
+        <v>377</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -4148,8 +4589,14 @@
       <c r="B149" t="s">
         <v>149</v>
       </c>
+      <c r="C149" t="s">
+        <v>379</v>
+      </c>
+      <c r="E149" t="s">
+        <v>380</v>
+      </c>
       <c r="F149" s="2" t="s">
-        <v>219</v>
+        <v>378</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -4159,8 +4606,11 @@
       <c r="B150" t="s">
         <v>150</v>
       </c>
+      <c r="C150" t="s">
+        <v>230</v>
+      </c>
       <c r="F150" s="2" t="s">
-        <v>219</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">

--- a/satd_issue_dataset_Scala_tsuji.xlsx
+++ b/satd_issue_dataset_Scala_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AF45FF-CAE3-2D46-8CCB-E2C9CADE5D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34915AB2-59FF-3B4D-9440-5509DF3879DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="-21100" windowWidth="28800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="448">
   <si>
     <t>Issue</t>
   </si>
@@ -679,11 +679,6 @@
   </si>
   <si>
     <t>Memo</t>
-  </si>
-  <si>
-    <t>[Content]
-[Class]</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>[Content]あらゆる場所で ConfigFactory.load を避ける
@@ -1502,8 +1497,359 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>[Content]Option存在確認用のastを作成する
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]openjdk を使用する
+[Class]ツールの使用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マージ後にビルドが失敗しました
+[Class]ビルドの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ドキュメント インプレース バインディング
+[Class]readmeの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Scala の Macro Api を使用しないように FreeVarTraverser を置き換えます
+[Class]ツールの置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストに合格しなくても ci ビルドは失敗しません
+[Class]CIビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Codecov が機能しない
+[Class]テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]簡素化lift/binding実装
+[Class]機能の実装</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VersionEye SBT プラグインを追加して、依存関係を最新の状態に保つ
+[Class]依存関係の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エンティティ AST の確認
+[Class]コードの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]quill-finagle-mysql: テストgenerated
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]readme -lazyデータベース値から削除 
+[Class]readmeの検証</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリングActionApply
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フォーマットされていないソース ファイルでビルドが失敗したときのエラー メッセージを改善
+[Class]ビルド失敗時の処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スカラフォームが機能しないParsing.scala
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サブモジュール テストのリファクタリング
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]quill-asyncのトレース ソースの場所
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デフォルトの sbt プロジェクトに Scala.js を含めるべきではない
+[Class]ファイルの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース スクリプトで Web サイトが更新されない 
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>[Content]リリース プロセス: gh ページの自動更新
-[Class]リリース</t>
+[Class]機能の改善</t>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]quill-util モジュール
+[Class]モジュールの利用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リファクタリング リリース ビルド
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サイトに https 証明書がありません
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]依存関係の解決に Cousier を使用する
+[Class]ツールの利用</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロジェクト モジュールをレイヤーごとにグループ化する
+[Class]コードの整理</t>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">セイリ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]arango ストレージ モデルを簡素化する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Arango 非同期ドライバーに切り替える
+[Class]機能の切り替え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]REST ゲートウェイ: Producer API コンテキストと Consumer API コンテキストを分割する
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サービスと UI の統合を修正
+[Class]UIの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース前のリファクタリング: REST および Web レイヤー
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]UI ビルドで「npm ci」を使用する
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「package-lock.json」ファイルを「package.json」内の正確なコンポーネント バージョンに置き換えます
+[Class]ファイルの置き換え</t>
+    <rPh sb="85" eb="86">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ArangoDB ドライバーを更新する
+[Class]DBの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンシューマー API の型ヒントを取り除く
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Spark Harvester を別のプロジェクトに抽出する
+[Class]機能の抽出</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]例: 一貫性のない出力ディレクトリ名
+[Class]ディレクトリ名の変更</t>
+    <rPh sb="41" eb="42">
+      <t xml:space="preserve">メイノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PR がマージされたら、velocypack のメインストリームに切り替えます
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンシューマ REST からアダプティブ タイムアウト機能を削除することを検討してください
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース前のリファクタリング: 永続層
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]install-node.cmdWindows 用のスクリプトを実装する
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コモンズをコモンズ プロジェクトに移動
+[Class]モジュールの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Spline コアを Scala 2.12 にアップグレード
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]docker-compose 構成を別のリポジトリに移動する
+[Class]ファイルの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]velocypack-module-scala をアップストリーム バージョンに更新する
+[Class]ツールの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Producer REST API の機能強化とドキュメント
+[Class]ドキュメントの更新</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]to REST ゲートウェイとの一貫性のために、パッケージの名前を変更
+[Class]名前の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SCM リビジョンはビルド レベルで短縮する必要があります
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リリース済みの package-po に切り替える
+[Class]パッケージの管理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Docker イメージのサイズを小さくする
+[Class]Dockerイメージの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Arangodb-java-driver: アップストリーム バージョン 6.12.2+ にアップグレードします
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AbsaOSS ルート POM に切り替える
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]標準の Finatra バージョンに戻す
+[Class]ツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ArangoDB Java ドライバーをバージョン 6.12.4+ にアップグレードします
+[Class]ツールのアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ArangoDB Java ドライブのバグの回避策を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]sbt-dependency-graph が sbt 1.0 用に相互公開されている場合に再度有効にする 
+[Class]ビルドの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Http2.bindAndHandleAsync の並列処理設定を削除
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CachingSettings クラス階層は、通常の public/impl クラスの分割に従っていません
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ByteString$.MODULE$.empty を取り除く
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LegacyHostConnectionPool の削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HTTP/2 demux: 受信ストリームと送信ストリームの処理を統一
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]bindAndHandle* 並列処理パラメーターを非推奨にする
+[Class]機能の非推奨化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]議論: akka-http2-support モジュールを分割する価値はまだあります
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HTTP/2 サーバーの正常なシャットダウン
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HTTP/2: グレースフル ターミネーションをサポート
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GH アクション PR バリデーターの「欠落しているフォーマットのチェック」ステップを修正
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スカラスチュワードを修正
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>もしかしたらBuild</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2471,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2508,10 +2854,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -2522,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -2536,10 +2882,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -2550,10 +2896,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">
@@ -2564,10 +2910,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -2578,10 +2924,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="63">
@@ -2592,10 +2938,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -2606,10 +2952,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -2620,10 +2966,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -2634,10 +2980,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="63">
@@ -2648,10 +2994,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -2662,10 +3008,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="63">
@@ -2676,10 +3022,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -2690,10 +3036,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="63">
@@ -2704,10 +3050,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -2718,10 +3064,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -2732,10 +3078,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="63">
@@ -2746,10 +3092,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -2760,10 +3106,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -2774,10 +3120,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -2788,10 +3134,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -2802,10 +3148,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="63">
@@ -2816,10 +3162,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -2830,10 +3176,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -2844,10 +3190,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -2858,10 +3204,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="63">
@@ -2872,10 +3218,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -2886,10 +3232,10 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -2900,10 +3246,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -2914,10 +3260,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -2928,10 +3274,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -2942,10 +3288,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -2956,10 +3302,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -2970,10 +3316,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="63">
@@ -2984,10 +3330,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -2998,10 +3344,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -3012,10 +3358,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="63">
@@ -3026,10 +3372,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -3040,10 +3386,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="63">
@@ -3054,10 +3400,10 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -3068,10 +3414,10 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -3082,10 +3428,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -3096,10 +3442,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="63">
@@ -3110,10 +3456,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -3124,10 +3470,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -3138,10 +3484,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -3152,10 +3498,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -3166,10 +3512,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -3180,10 +3526,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="63">
@@ -3194,10 +3540,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -3208,10 +3554,10 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -3222,10 +3568,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -3236,10 +3582,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -3250,10 +3596,10 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -3264,10 +3610,10 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -3278,10 +3624,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="63">
@@ -3292,10 +3638,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -3306,10 +3652,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="63">
@@ -3320,10 +3666,10 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -3334,10 +3680,10 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -3348,10 +3694,10 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="63">
@@ -3362,10 +3708,10 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -3376,10 +3722,10 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -3390,10 +3736,10 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -3404,10 +3750,10 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -3418,10 +3764,10 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -3432,10 +3778,10 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -3446,10 +3792,10 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -3460,10 +3806,10 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -3474,10 +3820,10 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -3488,10 +3834,10 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -3502,10 +3848,10 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -3516,10 +3862,10 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -3530,10 +3876,10 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -3544,10 +3890,10 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -3558,13 +3904,13 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -3575,10 +3921,10 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -3589,10 +3935,10 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -3603,10 +3949,10 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -3617,10 +3963,10 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -3631,10 +3977,10 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -3645,10 +3991,10 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -3659,10 +4005,10 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="63">
@@ -3673,10 +4019,10 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -3687,10 +4033,10 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -3701,10 +4047,10 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -3715,10 +4061,10 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -3729,10 +4075,10 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -3743,13 +4089,13 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -3760,10 +4106,10 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -3774,13 +4120,13 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -3791,10 +4137,10 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -3805,10 +4151,10 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="63">
@@ -3819,10 +4165,10 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -3833,10 +4179,10 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="63">
@@ -3847,10 +4193,10 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="63">
@@ -3861,10 +4207,10 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="63">
@@ -3875,10 +4221,10 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -3889,10 +4235,10 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">
@@ -3903,10 +4249,10 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -3917,10 +4263,10 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -3931,10 +4277,10 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -3945,10 +4291,10 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>225</v>
+        <v>368</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="63">
@@ -3959,10 +4305,10 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="63">
@@ -3973,10 +4319,10 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -3987,10 +4333,10 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -4001,10 +4347,10 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -4015,10 +4361,10 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -4029,10 +4375,10 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -4043,13 +4389,13 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="63">
@@ -4060,10 +4406,10 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -4074,10 +4420,10 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -4088,10 +4434,10 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -4102,10 +4448,10 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -4116,10 +4462,10 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -4130,10 +4476,10 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -4144,10 +4490,10 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="42">
@@ -4158,13 +4504,13 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D119" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -4175,10 +4521,10 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -4189,10 +4535,10 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="63">
@@ -4203,10 +4549,10 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -4217,16 +4563,16 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E123" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -4237,10 +4583,10 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -4251,10 +4597,10 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -4265,13 +4611,13 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -4282,10 +4628,10 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -4296,10 +4642,10 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -4310,10 +4656,10 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -4324,10 +4670,10 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -4338,10 +4684,10 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -4352,10 +4698,10 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -4366,10 +4712,10 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -4380,10 +4726,10 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -4394,10 +4740,10 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -4408,10 +4754,10 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -4422,10 +4768,10 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -4436,10 +4782,10 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -4450,10 +4796,10 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -4464,10 +4810,10 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -4478,10 +4824,10 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
+        <v>368</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -4492,10 +4838,10 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -4506,10 +4852,10 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -4520,10 +4866,10 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -4534,10 +4880,10 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -4548,10 +4894,10 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -4562,10 +4908,10 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -4576,10 +4922,10 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -4590,13 +4936,13 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
+        <v>378</v>
+      </c>
+      <c r="E149" t="s">
         <v>379</v>
       </c>
-      <c r="E149" t="s">
-        <v>380</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -4607,10 +4953,10 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">
@@ -4620,8 +4966,11 @@
       <c r="B151" t="s">
         <v>151</v>
       </c>
+      <c r="C151" t="s">
+        <v>220</v>
+      </c>
       <c r="F151" s="2" t="s">
-        <v>219</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -4631,8 +4980,11 @@
       <c r="B152" t="s">
         <v>152</v>
       </c>
+      <c r="C152" t="s">
+        <v>257</v>
+      </c>
       <c r="F152" s="2" t="s">
-        <v>219</v>
+        <v>381</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -4642,8 +4994,11 @@
       <c r="B153" t="s">
         <v>153</v>
       </c>
+      <c r="C153" t="s">
+        <v>368</v>
+      </c>
       <c r="F153" s="2" t="s">
-        <v>219</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -4653,19 +5008,25 @@
       <c r="B154" t="s">
         <v>154</v>
       </c>
+      <c r="C154" t="s">
+        <v>378</v>
+      </c>
       <c r="F154" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="42">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="63">
       <c r="A155">
         <v>326</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
       </c>
+      <c r="C155" t="s">
+        <v>257</v>
+      </c>
       <c r="F155" s="2" t="s">
-        <v>219</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -4675,8 +5036,11 @@
       <c r="B156" t="s">
         <v>156</v>
       </c>
+      <c r="C156" t="s">
+        <v>368</v>
+      </c>
       <c r="F156" s="2" t="s">
-        <v>219</v>
+        <v>385</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -4686,8 +5050,11 @@
       <c r="B157" t="s">
         <v>157</v>
       </c>
+      <c r="C157" t="s">
+        <v>224</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>219</v>
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -4697,19 +5064,25 @@
       <c r="B158" t="s">
         <v>158</v>
       </c>
+      <c r="C158" t="s">
+        <v>220</v>
+      </c>
       <c r="F158" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="42">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="63">
       <c r="A159">
         <v>348</v>
       </c>
       <c r="B159" t="s">
         <v>159</v>
       </c>
+      <c r="C159" t="s">
+        <v>257</v>
+      </c>
       <c r="F159" s="2" t="s">
-        <v>219</v>
+        <v>388</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -4719,8 +5092,11 @@
       <c r="B160" t="s">
         <v>160</v>
       </c>
+      <c r="C160" t="s">
+        <v>220</v>
+      </c>
       <c r="F160" s="2" t="s">
-        <v>219</v>
+        <v>389</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -4730,8 +5106,11 @@
       <c r="B161" t="s">
         <v>161</v>
       </c>
+      <c r="C161" t="s">
+        <v>224</v>
+      </c>
       <c r="F161" s="2" t="s">
-        <v>219</v>
+        <v>390</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -4741,8 +5120,11 @@
       <c r="B162" t="s">
         <v>162</v>
       </c>
+      <c r="C162" t="s">
+        <v>378</v>
+      </c>
       <c r="F162" s="2" t="s">
-        <v>219</v>
+        <v>391</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -4752,19 +5134,25 @@
       <c r="B163" t="s">
         <v>163</v>
       </c>
+      <c r="C163" t="s">
+        <v>220</v>
+      </c>
       <c r="F163" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="42">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="63">
       <c r="A164">
         <v>422</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
       </c>
+      <c r="C164" t="s">
+        <v>368</v>
+      </c>
       <c r="F164" s="2" t="s">
-        <v>219</v>
+        <v>393</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -4774,8 +5162,11 @@
       <c r="B165" t="s">
         <v>165</v>
       </c>
+      <c r="C165" t="s">
+        <v>220</v>
+      </c>
       <c r="F165" s="2" t="s">
-        <v>219</v>
+        <v>394</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -4785,8 +5176,11 @@
       <c r="B166" t="s">
         <v>166</v>
       </c>
+      <c r="C166" t="s">
+        <v>224</v>
+      </c>
       <c r="F166" s="2" t="s">
-        <v>219</v>
+        <v>395</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -4796,8 +5190,11 @@
       <c r="B167" t="s">
         <v>167</v>
       </c>
+      <c r="C167" t="s">
+        <v>220</v>
+      </c>
       <c r="F167" s="2" t="s">
-        <v>219</v>
+        <v>396</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -4807,8 +5204,11 @@
       <c r="B168" t="s">
         <v>168</v>
       </c>
+      <c r="C168" t="s">
+        <v>220</v>
+      </c>
       <c r="F168" s="2" t="s">
-        <v>219</v>
+        <v>397</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -4818,8 +5218,11 @@
       <c r="B169" t="s">
         <v>169</v>
       </c>
+      <c r="C169" t="s">
+        <v>220</v>
+      </c>
       <c r="F169" s="2" t="s">
-        <v>219</v>
+        <v>398</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -4829,8 +5232,11 @@
       <c r="B170" t="s">
         <v>170</v>
       </c>
+      <c r="C170" t="s">
+        <v>257</v>
+      </c>
       <c r="F170" s="2" t="s">
-        <v>219</v>
+        <v>400</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -4840,8 +5246,11 @@
       <c r="B171" t="s">
         <v>171</v>
       </c>
+      <c r="C171" t="s">
+        <v>368</v>
+      </c>
       <c r="F171" s="2" t="s">
-        <v>219</v>
+        <v>401</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -4851,8 +5260,11 @@
       <c r="B172" t="s">
         <v>172</v>
       </c>
+      <c r="C172" t="s">
+        <v>220</v>
+      </c>
       <c r="F172" s="2" t="s">
-        <v>219</v>
+        <v>402</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -4862,8 +5274,11 @@
       <c r="B173" t="s">
         <v>173</v>
       </c>
+      <c r="C173" t="s">
+        <v>257</v>
+      </c>
       <c r="F173" s="2" t="s">
-        <v>219</v>
+        <v>403</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -4873,8 +5288,11 @@
       <c r="B174" t="s">
         <v>174</v>
       </c>
+      <c r="C174" t="s">
+        <v>220</v>
+      </c>
       <c r="F174" s="2" t="s">
-        <v>219</v>
+        <v>404</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -4884,8 +5302,11 @@
       <c r="B175" t="s">
         <v>175</v>
       </c>
+      <c r="C175" t="s">
+        <v>220</v>
+      </c>
       <c r="F175" s="2" t="s">
-        <v>219</v>
+        <v>405</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -4895,19 +5316,25 @@
       <c r="B176" t="s">
         <v>176</v>
       </c>
+      <c r="C176" t="s">
+        <v>220</v>
+      </c>
       <c r="F176" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="42">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="63">
       <c r="A177">
         <v>281</v>
       </c>
       <c r="B177" t="s">
         <v>177</v>
       </c>
+      <c r="C177" t="s">
+        <v>220</v>
+      </c>
       <c r="F177" s="2" t="s">
-        <v>219</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -4917,8 +5344,14 @@
       <c r="B178" t="s">
         <v>178</v>
       </c>
+      <c r="C178" t="s">
+        <v>270</v>
+      </c>
+      <c r="E178" t="s">
+        <v>409</v>
+      </c>
       <c r="F178" s="2" t="s">
-        <v>219</v>
+        <v>408</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -4928,8 +5361,11 @@
       <c r="B179" t="s">
         <v>179</v>
       </c>
+      <c r="C179" t="s">
+        <v>220</v>
+      </c>
       <c r="F179" s="2" t="s">
-        <v>219</v>
+        <v>410</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -4939,19 +5375,25 @@
       <c r="B180" t="s">
         <v>180</v>
       </c>
+      <c r="C180" t="s">
+        <v>368</v>
+      </c>
       <c r="F180" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="42">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="63">
       <c r="A181">
         <v>386</v>
       </c>
       <c r="B181" t="s">
         <v>181</v>
       </c>
+      <c r="C181" t="s">
+        <v>220</v>
+      </c>
       <c r="F181" s="2" t="s">
-        <v>219</v>
+        <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -4961,8 +5403,11 @@
       <c r="B182" t="s">
         <v>182</v>
       </c>
+      <c r="C182" t="s">
+        <v>257</v>
+      </c>
       <c r="F182" s="2" t="s">
-        <v>219</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -4972,8 +5417,11 @@
       <c r="B183" t="s">
         <v>183</v>
       </c>
+      <c r="C183" t="s">
+        <v>220</v>
+      </c>
       <c r="F183" s="2" t="s">
-        <v>219</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -4983,8 +5431,11 @@
       <c r="B184" t="s">
         <v>184</v>
       </c>
+      <c r="C184" t="s">
+        <v>220</v>
+      </c>
       <c r="F184" s="2" t="s">
-        <v>219</v>
+        <v>415</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -4994,30 +5445,39 @@
       <c r="B185" t="s">
         <v>185</v>
       </c>
+      <c r="C185" t="s">
+        <v>220</v>
+      </c>
       <c r="F185" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="42">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="63">
       <c r="A186">
         <v>472</v>
       </c>
       <c r="B186" t="s">
         <v>186</v>
       </c>
+      <c r="C186" t="s">
+        <v>220</v>
+      </c>
       <c r="F186" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="42">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="63">
       <c r="A187">
         <v>474</v>
       </c>
       <c r="B187" t="s">
         <v>187</v>
       </c>
+      <c r="C187" t="s">
+        <v>220</v>
+      </c>
       <c r="F187" s="2" t="s">
-        <v>219</v>
+        <v>418</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -5027,8 +5487,11 @@
       <c r="B188" t="s">
         <v>188</v>
       </c>
+      <c r="C188" t="s">
+        <v>220</v>
+      </c>
       <c r="F188" s="2" t="s">
-        <v>219</v>
+        <v>419</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -5038,8 +5501,11 @@
       <c r="B189" t="s">
         <v>189</v>
       </c>
+      <c r="C189" t="s">
+        <v>368</v>
+      </c>
       <c r="F189" s="2" t="s">
-        <v>219</v>
+        <v>420</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -5049,8 +5515,11 @@
       <c r="B190" t="s">
         <v>190</v>
       </c>
+      <c r="C190" t="s">
+        <v>220</v>
+      </c>
       <c r="F190" s="2" t="s">
-        <v>219</v>
+        <v>421</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -5060,8 +5529,11 @@
       <c r="B191" t="s">
         <v>191</v>
       </c>
+      <c r="C191" t="s">
+        <v>257</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>219</v>
+        <v>422</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -5071,19 +5543,25 @@
       <c r="B192" t="s">
         <v>192</v>
       </c>
+      <c r="C192" t="s">
+        <v>220</v>
+      </c>
       <c r="F192" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="42">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="63">
       <c r="A193">
         <v>827</v>
       </c>
       <c r="B193" t="s">
         <v>193</v>
       </c>
+      <c r="C193" t="s">
+        <v>257</v>
+      </c>
       <c r="F193" s="2" t="s">
-        <v>219</v>
+        <v>424</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -5093,19 +5571,25 @@
       <c r="B194" t="s">
         <v>194</v>
       </c>
+      <c r="C194" t="s">
+        <v>378</v>
+      </c>
       <c r="F194" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="42">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="63">
       <c r="A195">
         <v>846</v>
       </c>
       <c r="B195" t="s">
         <v>195</v>
       </c>
+      <c r="C195" t="s">
+        <v>220</v>
+      </c>
       <c r="F195" s="2" t="s">
-        <v>219</v>
+        <v>426</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -5115,8 +5599,14 @@
       <c r="B196" t="s">
         <v>196</v>
       </c>
+      <c r="C196" t="s">
+        <v>368</v>
+      </c>
+      <c r="E196" t="s">
+        <v>409</v>
+      </c>
       <c r="F196" s="2" t="s">
-        <v>219</v>
+        <v>427</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -5126,8 +5616,11 @@
       <c r="B197" t="s">
         <v>197</v>
       </c>
+      <c r="C197" t="s">
+        <v>220</v>
+      </c>
       <c r="F197" s="2" t="s">
-        <v>219</v>
+        <v>428</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -5137,19 +5630,25 @@
       <c r="B198" t="s">
         <v>198</v>
       </c>
+      <c r="C198" t="s">
+        <v>220</v>
+      </c>
       <c r="F198" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="42">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="63">
       <c r="A199">
         <v>891</v>
       </c>
       <c r="B199" t="s">
         <v>199</v>
       </c>
+      <c r="C199" t="s">
+        <v>257</v>
+      </c>
       <c r="F199" s="2" t="s">
-        <v>219</v>
+        <v>430</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -5159,8 +5658,11 @@
       <c r="B200" t="s">
         <v>200</v>
       </c>
+      <c r="C200" t="s">
+        <v>220</v>
+      </c>
       <c r="F200" s="2" t="s">
-        <v>219</v>
+        <v>431</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">
@@ -5170,19 +5672,25 @@
       <c r="B201" t="s">
         <v>201</v>
       </c>
+      <c r="C201" t="s">
+        <v>257</v>
+      </c>
       <c r="F201" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="42">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="63">
       <c r="A202">
         <v>921</v>
       </c>
       <c r="B202" t="s">
         <v>202</v>
       </c>
+      <c r="C202" t="s">
+        <v>257</v>
+      </c>
       <c r="F202" s="2" t="s">
-        <v>219</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42">
@@ -5192,19 +5700,25 @@
       <c r="B203" t="s">
         <v>203</v>
       </c>
+      <c r="C203" t="s">
+        <v>220</v>
+      </c>
       <c r="F203" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="42">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="63">
       <c r="A204">
         <v>1438</v>
       </c>
       <c r="B204" t="s">
         <v>204</v>
       </c>
+      <c r="C204" t="s">
+        <v>368</v>
+      </c>
       <c r="F204" s="2" t="s">
-        <v>219</v>
+        <v>435</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="42">
@@ -5214,19 +5728,25 @@
       <c r="B205" t="s">
         <v>205</v>
       </c>
+      <c r="C205" t="s">
+        <v>220</v>
+      </c>
       <c r="F205" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="42">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="63">
       <c r="A206">
         <v>2415</v>
       </c>
       <c r="B206" t="s">
         <v>206</v>
       </c>
+      <c r="C206" t="s">
+        <v>220</v>
+      </c>
       <c r="F206" s="2" t="s">
-        <v>219</v>
+        <v>437</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="42">
@@ -5236,8 +5756,11 @@
       <c r="B207" t="s">
         <v>207</v>
       </c>
+      <c r="C207" t="s">
+        <v>220</v>
+      </c>
       <c r="F207" s="2" t="s">
-        <v>219</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="42">
@@ -5247,8 +5770,11 @@
       <c r="B208" t="s">
         <v>208</v>
       </c>
+      <c r="C208" t="s">
+        <v>220</v>
+      </c>
       <c r="F208" s="2" t="s">
-        <v>219</v>
+        <v>439</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="42">
@@ -5258,8 +5784,11 @@
       <c r="B209" t="s">
         <v>209</v>
       </c>
+      <c r="C209" t="s">
+        <v>220</v>
+      </c>
       <c r="F209" s="2" t="s">
-        <v>219</v>
+        <v>440</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="42">
@@ -5269,19 +5798,25 @@
       <c r="B210" t="s">
         <v>210</v>
       </c>
+      <c r="C210" t="s">
+        <v>220</v>
+      </c>
       <c r="F210" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="42">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="63">
       <c r="A211">
         <v>3514</v>
       </c>
       <c r="B211" t="s">
         <v>211</v>
       </c>
+      <c r="C211" t="s">
+        <v>220</v>
+      </c>
       <c r="F211" s="2" t="s">
-        <v>219</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="42">
@@ -5291,8 +5826,11 @@
       <c r="B212" t="s">
         <v>212</v>
       </c>
+      <c r="C212" t="s">
+        <v>220</v>
+      </c>
       <c r="F212" s="2" t="s">
-        <v>219</v>
+        <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -5302,19 +5840,25 @@
       <c r="B213" t="s">
         <v>213</v>
       </c>
+      <c r="C213" t="s">
+        <v>220</v>
+      </c>
       <c r="F213" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="42">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="63">
       <c r="A214">
         <v>3915</v>
       </c>
       <c r="B214" t="s">
         <v>214</v>
       </c>
+      <c r="C214" t="s">
+        <v>220</v>
+      </c>
       <c r="F214" s="2" t="s">
-        <v>219</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -5324,8 +5868,14 @@
       <c r="B215" t="s">
         <v>215</v>
       </c>
+      <c r="C215" t="s">
+        <v>220</v>
+      </c>
+      <c r="E215" t="s">
+        <v>447</v>
+      </c>
       <c r="F215" s="2" t="s">
-        <v>219</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
